--- a/data/ElecData.xlsx
+++ b/data/ElecData.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01-STUDY\SHJ\ElectronicMonitoringAsSystem\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DB4B18-6B08-4140-9E8F-C988E35B5FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318161A3-4B8A-4723-BE3F-6725193BD7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9270" yWindow="2910" windowWidth="19650" windowHeight="12360" xr2:uid="{2C2D3345-D944-4516-BDB9-BFA342AB9340}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2C2D3345-D944-4516-BDB9-BFA342AB9340}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$397</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="28">
   <si>
     <t>서울특별시</t>
   </si>
@@ -70,9 +73,6 @@
   </si>
   <si>
     <t>충청남도</t>
-  </si>
-  <si>
-    <t>전북특별자치도</t>
   </si>
   <si>
     <t>전라남도</t>
@@ -525,10 +525,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C64ED85-B3D9-445F-AD91-7A880470EED6}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K397"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E398" sqref="E398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -542,36 +543,36 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="C1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:11" hidden="1">
       <c r="A2" s="1">
         <v>2013</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -586,7 +587,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" hidden="1">
       <c r="A3" s="1">
         <v>2013</v>
       </c>
@@ -594,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
@@ -609,7 +610,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" hidden="1">
       <c r="A4" s="1">
         <v>2013</v>
       </c>
@@ -617,7 +618,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -632,7 +633,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" hidden="1">
       <c r="A5" s="1">
         <v>2013</v>
       </c>
@@ -640,7 +641,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
@@ -656,7 +657,7 @@
       </c>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" hidden="1">
       <c r="A6" s="1">
         <v>2013</v>
       </c>
@@ -664,7 +665,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -681,7 +682,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" hidden="1">
       <c r="A7" s="1">
         <v>2013</v>
       </c>
@@ -689,7 +690,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -706,7 +707,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" hidden="1">
       <c r="A8" s="1">
         <v>2013</v>
       </c>
@@ -714,7 +715,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -731,7 +732,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" hidden="1">
       <c r="A9" s="1">
         <v>2013</v>
       </c>
@@ -739,7 +740,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -756,7 +757,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" hidden="1">
       <c r="A10" s="1">
         <v>2013</v>
       </c>
@@ -764,7 +765,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
@@ -781,7 +782,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" hidden="1">
       <c r="A11" s="1">
         <v>2013</v>
       </c>
@@ -789,7 +790,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
@@ -806,7 +807,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" hidden="1">
       <c r="A12" s="1">
         <v>2013</v>
       </c>
@@ -814,7 +815,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
@@ -829,7 +830,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" hidden="1">
       <c r="A13" s="1">
         <v>2013</v>
       </c>
@@ -837,7 +838,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="4">
         <v>0</v>
@@ -852,7 +853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" hidden="1">
       <c r="A14" s="1">
         <v>2013</v>
       </c>
@@ -860,7 +861,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
@@ -875,15 +876,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" hidden="1">
       <c r="A15" s="1">
         <v>2013</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
@@ -898,15 +899,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" hidden="1">
       <c r="A16" s="1">
         <v>2013</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="4">
         <v>0</v>
@@ -921,15 +922,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" hidden="1">
       <c r="A17" s="1">
         <v>2013</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="4">
         <v>0</v>
@@ -944,15 +945,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" hidden="1">
       <c r="A18" s="1">
         <v>2013</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="4">
         <v>0</v>
@@ -967,15 +968,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" hidden="1">
       <c r="A19" s="1">
         <v>2013</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
@@ -990,15 +991,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" hidden="1">
       <c r="A20" s="4">
         <v>2014</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="4">
         <v>0</v>
@@ -1013,7 +1014,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" hidden="1">
       <c r="A21" s="4">
         <v>2014</v>
       </c>
@@ -1021,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="4">
         <v>0</v>
@@ -1036,7 +1037,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" hidden="1">
       <c r="A22" s="4">
         <v>2014</v>
       </c>
@@ -1044,7 +1045,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="4">
         <v>0</v>
@@ -1059,7 +1060,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" hidden="1">
       <c r="A23" s="4">
         <v>2014</v>
       </c>
@@ -1067,7 +1068,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" s="4">
         <v>0</v>
@@ -1082,7 +1083,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" hidden="1">
       <c r="A24" s="4">
         <v>2014</v>
       </c>
@@ -1090,7 +1091,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" s="4">
         <v>0</v>
@@ -1105,7 +1106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" hidden="1">
       <c r="A25" s="4">
         <v>2014</v>
       </c>
@@ -1113,7 +1114,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25" s="4">
         <v>0</v>
@@ -1128,7 +1129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" hidden="1">
       <c r="A26" s="4">
         <v>2014</v>
       </c>
@@ -1136,7 +1137,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26" s="4">
         <v>0</v>
@@ -1151,7 +1152,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" hidden="1">
       <c r="A27" s="4">
         <v>2014</v>
       </c>
@@ -1159,7 +1160,7 @@
         <v>6</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27" s="4">
         <v>0</v>
@@ -1174,7 +1175,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" hidden="1">
       <c r="A28" s="4">
         <v>2014</v>
       </c>
@@ -1182,7 +1183,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D28" s="4">
         <v>0</v>
@@ -1197,7 +1198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" hidden="1">
       <c r="A29" s="4">
         <v>2014</v>
       </c>
@@ -1205,7 +1206,7 @@
         <v>8</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D29" s="4">
         <v>0</v>
@@ -1220,7 +1221,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" hidden="1">
       <c r="A30" s="4">
         <v>2014</v>
       </c>
@@ -1228,7 +1229,7 @@
         <v>9</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D30" s="4">
         <v>0</v>
@@ -1243,7 +1244,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" hidden="1">
       <c r="A31" s="4">
         <v>2014</v>
       </c>
@@ -1251,7 +1252,7 @@
         <v>10</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D31" s="4">
         <v>0</v>
@@ -1266,7 +1267,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" hidden="1">
       <c r="A32" s="4">
         <v>2014</v>
       </c>
@@ -1274,7 +1275,7 @@
         <v>11</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D32" s="4">
         <v>0</v>
@@ -1289,15 +1290,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" hidden="1">
       <c r="A33" s="4">
         <v>2014</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D33" s="4">
         <v>0</v>
@@ -1312,15 +1313,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" hidden="1">
       <c r="A34" s="4">
         <v>2014</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D34" s="4">
         <v>0</v>
@@ -1335,15 +1336,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" hidden="1">
       <c r="A35" s="4">
         <v>2014</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D35" s="4">
         <v>0</v>
@@ -1358,15 +1359,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" hidden="1">
       <c r="A36" s="4">
         <v>2014</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D36" s="4">
         <v>0</v>
@@ -1381,15 +1382,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" hidden="1">
       <c r="A37" s="4">
         <v>2014</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D37" s="4">
         <v>0</v>
@@ -1404,15 +1405,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" hidden="1">
       <c r="A38" s="4">
         <v>2015</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D38" s="4">
         <v>0</v>
@@ -1427,7 +1428,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" hidden="1">
       <c r="A39" s="4">
         <v>2015</v>
       </c>
@@ -1435,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D39" s="4">
         <v>0</v>
@@ -1450,7 +1451,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" hidden="1">
       <c r="A40" s="4">
         <v>2015</v>
       </c>
@@ -1458,7 +1459,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D40" s="4">
         <v>0</v>
@@ -1473,7 +1474,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" hidden="1">
       <c r="A41" s="4">
         <v>2015</v>
       </c>
@@ -1481,7 +1482,7 @@
         <v>2</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D41" s="4">
         <v>0</v>
@@ -1496,7 +1497,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" hidden="1">
       <c r="A42" s="4">
         <v>2015</v>
       </c>
@@ -1504,7 +1505,7 @@
         <v>3</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D42" s="4">
         <v>0</v>
@@ -1519,7 +1520,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" hidden="1">
       <c r="A43" s="4">
         <v>2015</v>
       </c>
@@ -1527,7 +1528,7 @@
         <v>4</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D43" s="4">
         <v>0</v>
@@ -1542,7 +1543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" hidden="1">
       <c r="A44" s="4">
         <v>2015</v>
       </c>
@@ -1550,7 +1551,7 @@
         <v>5</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D44" s="4">
         <v>0</v>
@@ -1565,7 +1566,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" hidden="1">
       <c r="A45" s="4">
         <v>2015</v>
       </c>
@@ -1573,7 +1574,7 @@
         <v>6</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D45" s="4">
         <v>0</v>
@@ -1588,7 +1589,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" hidden="1">
       <c r="A46" s="4">
         <v>2015</v>
       </c>
@@ -1596,7 +1597,7 @@
         <v>7</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D46" s="4">
         <v>0</v>
@@ -1611,7 +1612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" hidden="1">
       <c r="A47" s="4">
         <v>2015</v>
       </c>
@@ -1619,7 +1620,7 @@
         <v>8</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D47" s="4">
         <v>0</v>
@@ -1634,7 +1635,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" hidden="1">
       <c r="A48" s="4">
         <v>2015</v>
       </c>
@@ -1642,7 +1643,7 @@
         <v>9</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D48" s="4">
         <v>0</v>
@@ -1657,7 +1658,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" hidden="1">
       <c r="A49" s="4">
         <v>2015</v>
       </c>
@@ -1665,7 +1666,7 @@
         <v>10</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D49" s="4">
         <v>0</v>
@@ -1680,7 +1681,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" hidden="1">
       <c r="A50" s="4">
         <v>2015</v>
       </c>
@@ -1688,7 +1689,7 @@
         <v>11</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D50" s="4">
         <v>0</v>
@@ -1703,15 +1704,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" hidden="1">
       <c r="A51" s="4">
         <v>2015</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D51" s="4">
         <v>0</v>
@@ -1726,15 +1727,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" hidden="1">
       <c r="A52" s="4">
         <v>2015</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D52" s="4">
         <v>0</v>
@@ -1749,15 +1750,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" hidden="1">
       <c r="A53" s="4">
         <v>2015</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D53" s="4">
         <v>0</v>
@@ -1772,15 +1773,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" hidden="1">
       <c r="A54" s="4">
         <v>2015</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D54" s="4">
         <v>0</v>
@@ -1795,15 +1796,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" hidden="1">
       <c r="A55" s="4">
         <v>2015</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D55" s="4">
         <v>0</v>
@@ -1818,15 +1819,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" hidden="1">
       <c r="A56" s="4">
         <v>2016</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D56" s="4">
         <v>0</v>
@@ -1841,7 +1842,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" hidden="1">
       <c r="A57" s="4">
         <v>2016</v>
       </c>
@@ -1849,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D57" s="4">
         <v>0</v>
@@ -1864,7 +1865,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" hidden="1">
       <c r="A58" s="4">
         <v>2016</v>
       </c>
@@ -1872,7 +1873,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D58" s="4">
         <v>0</v>
@@ -1887,7 +1888,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" hidden="1">
       <c r="A59" s="4">
         <v>2016</v>
       </c>
@@ -1895,7 +1896,7 @@
         <v>2</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D59" s="4">
         <v>0</v>
@@ -1910,7 +1911,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" hidden="1">
       <c r="A60" s="4">
         <v>2016</v>
       </c>
@@ -1918,7 +1919,7 @@
         <v>3</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D60" s="4">
         <v>0</v>
@@ -1933,7 +1934,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" hidden="1">
       <c r="A61" s="4">
         <v>2016</v>
       </c>
@@ -1941,7 +1942,7 @@
         <v>4</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D61" s="4">
         <v>0</v>
@@ -1956,7 +1957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" hidden="1">
       <c r="A62" s="4">
         <v>2016</v>
       </c>
@@ -1964,7 +1965,7 @@
         <v>5</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D62" s="4">
         <v>0</v>
@@ -1979,7 +1980,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" hidden="1">
       <c r="A63" s="4">
         <v>2016</v>
       </c>
@@ -1987,7 +1988,7 @@
         <v>6</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D63" s="4">
         <v>0</v>
@@ -2002,7 +2003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" hidden="1">
       <c r="A64" s="4">
         <v>2016</v>
       </c>
@@ -2010,7 +2011,7 @@
         <v>7</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D64" s="4">
         <v>0</v>
@@ -2025,7 +2026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" hidden="1">
       <c r="A65" s="4">
         <v>2016</v>
       </c>
@@ -2033,7 +2034,7 @@
         <v>8</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D65" s="4">
         <v>0</v>
@@ -2048,7 +2049,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" hidden="1">
       <c r="A66" s="4">
         <v>2016</v>
       </c>
@@ -2056,7 +2057,7 @@
         <v>9</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D66" s="4">
         <v>0</v>
@@ -2071,7 +2072,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" hidden="1">
       <c r="A67" s="4">
         <v>2016</v>
       </c>
@@ -2079,7 +2080,7 @@
         <v>10</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D67" s="4">
         <v>0</v>
@@ -2094,7 +2095,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" hidden="1">
       <c r="A68" s="4">
         <v>2016</v>
       </c>
@@ -2102,7 +2103,7 @@
         <v>11</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D68" s="4">
         <v>0</v>
@@ -2117,15 +2118,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" hidden="1">
       <c r="A69" s="4">
         <v>2016</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D69" s="4">
         <v>0</v>
@@ -2140,15 +2141,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" hidden="1">
       <c r="A70" s="4">
         <v>2016</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D70" s="4">
         <v>0</v>
@@ -2163,15 +2164,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" hidden="1">
       <c r="A71" s="4">
         <v>2016</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D71" s="4">
         <v>0</v>
@@ -2186,15 +2187,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" hidden="1">
       <c r="A72" s="4">
         <v>2016</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D72" s="4">
         <v>0</v>
@@ -2209,15 +2210,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" hidden="1">
       <c r="A73" s="4">
         <v>2016</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D73" s="4">
         <v>0</v>
@@ -2232,15 +2233,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" hidden="1">
       <c r="A74" s="4">
         <v>2017</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D74" s="4">
         <v>0</v>
@@ -2255,7 +2256,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" hidden="1">
       <c r="A75" s="4">
         <v>2017</v>
       </c>
@@ -2263,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D75" s="4">
         <v>0</v>
@@ -2278,7 +2279,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" hidden="1">
       <c r="A76" s="4">
         <v>2017</v>
       </c>
@@ -2286,7 +2287,7 @@
         <v>1</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D76" s="4">
         <v>0</v>
@@ -2301,7 +2302,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" hidden="1">
       <c r="A77" s="4">
         <v>2017</v>
       </c>
@@ -2309,7 +2310,7 @@
         <v>2</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D77" s="4">
         <v>0</v>
@@ -2324,7 +2325,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" hidden="1">
       <c r="A78" s="4">
         <v>2017</v>
       </c>
@@ -2332,7 +2333,7 @@
         <v>3</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D78" s="4">
         <v>0</v>
@@ -2347,7 +2348,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" hidden="1">
       <c r="A79" s="4">
         <v>2017</v>
       </c>
@@ -2355,7 +2356,7 @@
         <v>4</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D79" s="4">
         <v>0</v>
@@ -2370,7 +2371,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" hidden="1">
       <c r="A80" s="4">
         <v>2017</v>
       </c>
@@ -2378,7 +2379,7 @@
         <v>5</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D80" s="4">
         <v>0</v>
@@ -2393,7 +2394,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" hidden="1">
       <c r="A81" s="4">
         <v>2017</v>
       </c>
@@ -2401,7 +2402,7 @@
         <v>6</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D81" s="4">
         <v>0</v>
@@ -2416,7 +2417,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" hidden="1">
       <c r="A82" s="4">
         <v>2017</v>
       </c>
@@ -2424,7 +2425,7 @@
         <v>7</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D82" s="4">
         <v>0</v>
@@ -2439,7 +2440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" hidden="1">
       <c r="A83" s="4">
         <v>2017</v>
       </c>
@@ -2447,7 +2448,7 @@
         <v>8</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D83" s="4">
         <v>0</v>
@@ -2462,7 +2463,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" hidden="1">
       <c r="A84" s="4">
         <v>2017</v>
       </c>
@@ -2470,7 +2471,7 @@
         <v>9</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D84" s="4">
         <v>0</v>
@@ -2485,7 +2486,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" hidden="1">
       <c r="A85" s="4">
         <v>2017</v>
       </c>
@@ -2493,7 +2494,7 @@
         <v>10</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D85" s="4">
         <v>0</v>
@@ -2508,7 +2509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" hidden="1">
       <c r="A86" s="4">
         <v>2017</v>
       </c>
@@ -2516,7 +2517,7 @@
         <v>11</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D86" s="4">
         <v>0</v>
@@ -2531,15 +2532,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" hidden="1">
       <c r="A87" s="4">
         <v>2017</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D87" s="4">
         <v>0</v>
@@ -2554,15 +2555,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" hidden="1">
       <c r="A88" s="4">
         <v>2017</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D88" s="4">
         <v>0</v>
@@ -2577,15 +2578,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" hidden="1">
       <c r="A89" s="4">
         <v>2017</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D89" s="4">
         <v>0</v>
@@ -2600,15 +2601,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" hidden="1">
       <c r="A90" s="4">
         <v>2017</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D90" s="4">
         <v>0</v>
@@ -2623,15 +2624,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" hidden="1">
       <c r="A91" s="4">
         <v>2017</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D91" s="4">
         <v>0</v>
@@ -2646,15 +2647,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" hidden="1">
       <c r="A92" s="4">
         <v>2018</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D92" s="4">
         <v>0</v>
@@ -2669,7 +2670,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" hidden="1">
       <c r="A93" s="4">
         <v>2018</v>
       </c>
@@ -2677,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D93" s="4">
         <v>0</v>
@@ -2692,7 +2693,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" hidden="1">
       <c r="A94" s="4">
         <v>2018</v>
       </c>
@@ -2700,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D94" s="4">
         <v>0</v>
@@ -2715,7 +2716,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" hidden="1">
       <c r="A95" s="4">
         <v>2018</v>
       </c>
@@ -2723,7 +2724,7 @@
         <v>2</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D95" s="4">
         <v>0</v>
@@ -2738,7 +2739,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" hidden="1">
       <c r="A96" s="4">
         <v>2018</v>
       </c>
@@ -2746,7 +2747,7 @@
         <v>3</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D96" s="4">
         <v>0</v>
@@ -2761,7 +2762,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" hidden="1">
       <c r="A97" s="4">
         <v>2018</v>
       </c>
@@ -2769,7 +2770,7 @@
         <v>4</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D97" s="4">
         <v>0</v>
@@ -2784,7 +2785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" hidden="1">
       <c r="A98" s="4">
         <v>2018</v>
       </c>
@@ -2792,7 +2793,7 @@
         <v>5</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D98" s="4">
         <v>0</v>
@@ -2807,7 +2808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" hidden="1">
       <c r="A99" s="4">
         <v>2018</v>
       </c>
@@ -2815,7 +2816,7 @@
         <v>6</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D99" s="4">
         <v>0</v>
@@ -2830,7 +2831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" hidden="1">
       <c r="A100" s="4">
         <v>2018</v>
       </c>
@@ -2838,7 +2839,7 @@
         <v>7</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D100" s="4">
         <v>0</v>
@@ -2853,7 +2854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" hidden="1">
       <c r="A101" s="4">
         <v>2018</v>
       </c>
@@ -2861,7 +2862,7 @@
         <v>8</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D101" s="4">
         <v>0</v>
@@ -2876,7 +2877,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" hidden="1">
       <c r="A102" s="4">
         <v>2018</v>
       </c>
@@ -2884,7 +2885,7 @@
         <v>9</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D102" s="4">
         <v>0</v>
@@ -2899,7 +2900,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" hidden="1">
       <c r="A103" s="4">
         <v>2018</v>
       </c>
@@ -2907,7 +2908,7 @@
         <v>10</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D103" s="4">
         <v>0</v>
@@ -2922,7 +2923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" hidden="1">
       <c r="A104" s="4">
         <v>2018</v>
       </c>
@@ -2930,7 +2931,7 @@
         <v>11</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D104" s="4">
         <v>0</v>
@@ -2945,15 +2946,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" hidden="1">
       <c r="A105" s="4">
         <v>2018</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D105" s="4">
         <v>0</v>
@@ -2968,15 +2969,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" hidden="1">
       <c r="A106" s="4">
         <v>2018</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D106" s="4">
         <v>0</v>
@@ -2991,15 +2992,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" hidden="1">
       <c r="A107" s="4">
         <v>2018</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D107" s="4">
         <v>0</v>
@@ -3014,15 +3015,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" hidden="1">
       <c r="A108" s="4">
         <v>2018</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D108" s="4">
         <v>0</v>
@@ -3037,15 +3038,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" hidden="1">
       <c r="A109" s="4">
         <v>2018</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D109" s="4">
         <v>0</v>
@@ -3060,15 +3061,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" hidden="1">
       <c r="A110" s="4">
         <v>2019</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D110" s="4">
         <v>0</v>
@@ -3083,7 +3084,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" hidden="1">
       <c r="A111" s="4">
         <v>2019</v>
       </c>
@@ -3091,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D111" s="4">
         <v>0</v>
@@ -3106,7 +3107,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" hidden="1">
       <c r="A112" s="4">
         <v>2019</v>
       </c>
@@ -3114,7 +3115,7 @@
         <v>1</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D112" s="4">
         <v>0</v>
@@ -3129,7 +3130,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" hidden="1">
       <c r="A113" s="4">
         <v>2019</v>
       </c>
@@ -3137,7 +3138,7 @@
         <v>2</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D113" s="4">
         <v>0</v>
@@ -3152,7 +3153,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" hidden="1">
       <c r="A114" s="4">
         <v>2019</v>
       </c>
@@ -3160,7 +3161,7 @@
         <v>3</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D114" s="4">
         <v>0</v>
@@ -3175,7 +3176,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" hidden="1">
       <c r="A115" s="4">
         <v>2019</v>
       </c>
@@ -3183,7 +3184,7 @@
         <v>4</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D115" s="4">
         <v>0</v>
@@ -3198,7 +3199,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" hidden="1">
       <c r="A116" s="4">
         <v>2019</v>
       </c>
@@ -3206,7 +3207,7 @@
         <v>5</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D116" s="4">
         <v>0</v>
@@ -3221,7 +3222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" hidden="1">
       <c r="A117" s="4">
         <v>2019</v>
       </c>
@@ -3229,7 +3230,7 @@
         <v>6</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D117" s="4">
         <v>0</v>
@@ -3244,7 +3245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" hidden="1">
       <c r="A118" s="4">
         <v>2019</v>
       </c>
@@ -3252,7 +3253,7 @@
         <v>7</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D118" s="4">
         <v>0</v>
@@ -3267,7 +3268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" hidden="1">
       <c r="A119" s="4">
         <v>2019</v>
       </c>
@@ -3275,7 +3276,7 @@
         <v>8</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D119" s="4">
         <v>0</v>
@@ -3290,7 +3291,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" hidden="1">
       <c r="A120" s="4">
         <v>2019</v>
       </c>
@@ -3298,7 +3299,7 @@
         <v>9</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D120" s="4">
         <v>0</v>
@@ -3313,7 +3314,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" hidden="1">
       <c r="A121" s="4">
         <v>2019</v>
       </c>
@@ -3321,7 +3322,7 @@
         <v>10</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D121" s="4">
         <v>0</v>
@@ -3336,7 +3337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" hidden="1">
       <c r="A122" s="4">
         <v>2019</v>
       </c>
@@ -3344,7 +3345,7 @@
         <v>11</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D122" s="4">
         <v>0</v>
@@ -3359,15 +3360,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" hidden="1">
       <c r="A123" s="4">
         <v>2019</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D123" s="4">
         <v>0</v>
@@ -3382,15 +3383,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" hidden="1">
       <c r="A124" s="4">
         <v>2019</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D124" s="4">
         <v>0</v>
@@ -3405,15 +3406,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" hidden="1">
       <c r="A125" s="4">
         <v>2019</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D125" s="4">
         <v>0</v>
@@ -3428,15 +3429,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" hidden="1">
       <c r="A126" s="4">
         <v>2019</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D126" s="4">
         <v>0</v>
@@ -3451,15 +3452,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" hidden="1">
       <c r="A127" s="4">
         <v>2019</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D127" s="4">
         <v>0</v>
@@ -3474,15 +3475,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" hidden="1">
       <c r="A128" s="4">
         <v>2020</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D128" s="4">
         <v>0</v>
@@ -3497,7 +3498,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" hidden="1">
       <c r="A129" s="4">
         <v>2020</v>
       </c>
@@ -3505,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D129" s="4">
         <v>0</v>
@@ -3520,7 +3521,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" hidden="1">
       <c r="A130" s="4">
         <v>2020</v>
       </c>
@@ -3528,7 +3529,7 @@
         <v>1</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D130" s="4">
         <v>0</v>
@@ -3543,7 +3544,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" hidden="1">
       <c r="A131" s="4">
         <v>2020</v>
       </c>
@@ -3551,7 +3552,7 @@
         <v>2</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D131" s="4">
         <v>0</v>
@@ -3566,7 +3567,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" hidden="1">
       <c r="A132" s="4">
         <v>2020</v>
       </c>
@@ -3574,7 +3575,7 @@
         <v>3</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D132" s="4">
         <v>0</v>
@@ -3589,7 +3590,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" hidden="1">
       <c r="A133" s="4">
         <v>2020</v>
       </c>
@@ -3597,7 +3598,7 @@
         <v>4</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D133" s="4">
         <v>0</v>
@@ -3612,7 +3613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" hidden="1">
       <c r="A134" s="4">
         <v>2020</v>
       </c>
@@ -3620,7 +3621,7 @@
         <v>5</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D134" s="4">
         <v>0</v>
@@ -3635,7 +3636,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" hidden="1">
       <c r="A135" s="4">
         <v>2020</v>
       </c>
@@ -3643,7 +3644,7 @@
         <v>6</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D135" s="4">
         <v>0</v>
@@ -3658,7 +3659,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" hidden="1">
       <c r="A136" s="4">
         <v>2020</v>
       </c>
@@ -3666,7 +3667,7 @@
         <v>7</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D136" s="4">
         <v>0</v>
@@ -3681,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" hidden="1">
       <c r="A137" s="4">
         <v>2020</v>
       </c>
@@ -3689,7 +3690,7 @@
         <v>8</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D137" s="4">
         <v>0</v>
@@ -3704,7 +3705,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" hidden="1">
       <c r="A138" s="4">
         <v>2020</v>
       </c>
@@ -3712,7 +3713,7 @@
         <v>9</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D138" s="4">
         <v>0</v>
@@ -3727,7 +3728,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" hidden="1">
       <c r="A139" s="4">
         <v>2020</v>
       </c>
@@ -3735,7 +3736,7 @@
         <v>10</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D139" s="4">
         <v>0</v>
@@ -3750,7 +3751,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" hidden="1">
       <c r="A140" s="4">
         <v>2020</v>
       </c>
@@ -3758,7 +3759,7 @@
         <v>11</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D140" s="4">
         <v>0</v>
@@ -3773,15 +3774,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" hidden="1">
       <c r="A141" s="4">
         <v>2020</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D141" s="4">
         <v>0</v>
@@ -3796,15 +3797,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" hidden="1">
       <c r="A142" s="4">
         <v>2020</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D142" s="4">
         <v>0</v>
@@ -3819,15 +3820,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" hidden="1">
       <c r="A143" s="4">
         <v>2020</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D143" s="4">
         <v>0</v>
@@ -3842,15 +3843,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" hidden="1">
       <c r="A144" s="4">
         <v>2020</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D144" s="4">
         <v>0</v>
@@ -3865,15 +3866,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" hidden="1">
       <c r="A145" s="4">
         <v>2020</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D145" s="4">
         <v>0</v>
@@ -3888,15 +3889,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" hidden="1">
       <c r="A146" s="4">
         <v>2021</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D146" s="4">
         <v>0</v>
@@ -3911,7 +3912,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" hidden="1">
       <c r="A147" s="4">
         <v>2021</v>
       </c>
@@ -3919,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D147" s="4">
         <v>0</v>
@@ -3934,7 +3935,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" hidden="1">
       <c r="A148" s="4">
         <v>2021</v>
       </c>
@@ -3942,7 +3943,7 @@
         <v>1</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D148" s="4">
         <v>0</v>
@@ -3957,7 +3958,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" hidden="1">
       <c r="A149" s="4">
         <v>2021</v>
       </c>
@@ -3965,7 +3966,7 @@
         <v>2</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D149" s="4">
         <v>0</v>
@@ -3980,7 +3981,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" hidden="1">
       <c r="A150" s="4">
         <v>2021</v>
       </c>
@@ -3988,7 +3989,7 @@
         <v>3</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D150" s="4">
         <v>0</v>
@@ -4003,7 +4004,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" hidden="1">
       <c r="A151" s="4">
         <v>2021</v>
       </c>
@@ -4011,7 +4012,7 @@
         <v>4</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D151" s="4">
         <v>0</v>
@@ -4026,7 +4027,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" hidden="1">
       <c r="A152" s="4">
         <v>2021</v>
       </c>
@@ -4034,7 +4035,7 @@
         <v>5</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D152" s="4">
         <v>0</v>
@@ -4049,7 +4050,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" hidden="1">
       <c r="A153" s="4">
         <v>2021</v>
       </c>
@@ -4057,7 +4058,7 @@
         <v>6</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D153" s="4">
         <v>0</v>
@@ -4072,7 +4073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" hidden="1">
       <c r="A154" s="4">
         <v>2021</v>
       </c>
@@ -4080,7 +4081,7 @@
         <v>7</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D154" s="4">
         <v>0</v>
@@ -4095,7 +4096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" hidden="1">
       <c r="A155" s="4">
         <v>2021</v>
       </c>
@@ -4103,7 +4104,7 @@
         <v>8</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D155" s="4">
         <v>0</v>
@@ -4118,7 +4119,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" hidden="1">
       <c r="A156" s="4">
         <v>2021</v>
       </c>
@@ -4126,7 +4127,7 @@
         <v>9</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D156" s="4">
         <v>0</v>
@@ -4141,7 +4142,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" hidden="1">
       <c r="A157" s="4">
         <v>2021</v>
       </c>
@@ -4149,7 +4150,7 @@
         <v>10</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D157" s="4">
         <v>0</v>
@@ -4164,7 +4165,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" hidden="1">
       <c r="A158" s="4">
         <v>2021</v>
       </c>
@@ -4172,7 +4173,7 @@
         <v>11</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D158" s="4">
         <v>0</v>
@@ -4187,15 +4188,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" hidden="1">
       <c r="A159" s="4">
         <v>2021</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D159" s="4">
         <v>0</v>
@@ -4210,15 +4211,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" hidden="1">
       <c r="A160" s="4">
         <v>2021</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D160" s="4">
         <v>0</v>
@@ -4233,15 +4234,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" hidden="1">
       <c r="A161" s="4">
         <v>2021</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D161" s="4">
         <v>0</v>
@@ -4256,15 +4257,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" hidden="1">
       <c r="A162" s="4">
         <v>2021</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D162" s="4">
         <v>0</v>
@@ -4279,15 +4280,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" hidden="1">
       <c r="A163" s="4">
         <v>2021</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D163" s="4">
         <v>0</v>
@@ -4302,15 +4303,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" hidden="1">
       <c r="A164" s="4">
         <v>2022</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D164" s="4">
         <v>0</v>
@@ -4325,7 +4326,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" hidden="1">
       <c r="A165" s="4">
         <v>2022</v>
       </c>
@@ -4333,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D165" s="4">
         <v>0</v>
@@ -4348,7 +4349,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" hidden="1">
       <c r="A166" s="4">
         <v>2022</v>
       </c>
@@ -4356,7 +4357,7 @@
         <v>1</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D166" s="4">
         <v>0</v>
@@ -4371,7 +4372,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" hidden="1">
       <c r="A167" s="4">
         <v>2022</v>
       </c>
@@ -4379,7 +4380,7 @@
         <v>2</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D167" s="4">
         <v>0</v>
@@ -4394,7 +4395,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" hidden="1">
       <c r="A168" s="4">
         <v>2022</v>
       </c>
@@ -4402,7 +4403,7 @@
         <v>3</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D168" s="4">
         <v>0</v>
@@ -4417,7 +4418,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" hidden="1">
       <c r="A169" s="4">
         <v>2022</v>
       </c>
@@ -4425,7 +4426,7 @@
         <v>4</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D169" s="4">
         <v>0</v>
@@ -4440,7 +4441,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" hidden="1">
       <c r="A170" s="4">
         <v>2022</v>
       </c>
@@ -4448,7 +4449,7 @@
         <v>5</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D170" s="4">
         <v>0</v>
@@ -4463,7 +4464,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" hidden="1">
       <c r="A171" s="4">
         <v>2022</v>
       </c>
@@ -4471,7 +4472,7 @@
         <v>6</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D171" s="4">
         <v>0</v>
@@ -4486,7 +4487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" hidden="1">
       <c r="A172" s="4">
         <v>2022</v>
       </c>
@@ -4494,7 +4495,7 @@
         <v>7</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D172" s="4">
         <v>0</v>
@@ -4509,7 +4510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" hidden="1">
       <c r="A173" s="4">
         <v>2022</v>
       </c>
@@ -4517,7 +4518,7 @@
         <v>8</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D173" s="4">
         <v>0</v>
@@ -4532,7 +4533,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" hidden="1">
       <c r="A174" s="4">
         <v>2022</v>
       </c>
@@ -4540,7 +4541,7 @@
         <v>9</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D174" s="4">
         <v>0</v>
@@ -4555,7 +4556,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" hidden="1">
       <c r="A175" s="4">
         <v>2022</v>
       </c>
@@ -4563,7 +4564,7 @@
         <v>10</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D175" s="4">
         <v>0</v>
@@ -4578,7 +4579,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" hidden="1">
       <c r="A176" s="4">
         <v>2022</v>
       </c>
@@ -4586,7 +4587,7 @@
         <v>11</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D176" s="4">
         <v>0</v>
@@ -4601,15 +4602,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" hidden="1">
       <c r="A177" s="4">
         <v>2022</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D177" s="4">
         <v>0</v>
@@ -4624,15 +4625,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" hidden="1">
       <c r="A178" s="4">
         <v>2022</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D178" s="4">
         <v>0</v>
@@ -4647,15 +4648,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" hidden="1">
       <c r="A179" s="4">
         <v>2022</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D179" s="4">
         <v>0</v>
@@ -4670,15 +4671,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" hidden="1">
       <c r="A180" s="4">
         <v>2022</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D180" s="4">
         <v>0</v>
@@ -4693,15 +4694,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" hidden="1">
       <c r="A181" s="4">
         <v>2022</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D181" s="4">
         <v>0</v>
@@ -4716,15 +4717,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" hidden="1">
       <c r="A182" s="4">
         <v>2023</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D182" s="4">
         <v>0</v>
@@ -4739,7 +4740,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" hidden="1">
       <c r="A183" s="4">
         <v>2023</v>
       </c>
@@ -4747,7 +4748,7 @@
         <v>0</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D183" s="4">
         <v>0</v>
@@ -4762,7 +4763,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" hidden="1">
       <c r="A184" s="4">
         <v>2023</v>
       </c>
@@ -4770,7 +4771,7 @@
         <v>1</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D184" s="4">
         <v>0</v>
@@ -4785,7 +4786,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" hidden="1">
       <c r="A185" s="4">
         <v>2023</v>
       </c>
@@ -4793,7 +4794,7 @@
         <v>2</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D185" s="4">
         <v>0</v>
@@ -4808,7 +4809,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" hidden="1">
       <c r="A186" s="4">
         <v>2023</v>
       </c>
@@ -4816,7 +4817,7 @@
         <v>3</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D186" s="4">
         <v>0</v>
@@ -4831,7 +4832,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" hidden="1">
       <c r="A187" s="4">
         <v>2023</v>
       </c>
@@ -4839,7 +4840,7 @@
         <v>4</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D187" s="4">
         <v>0</v>
@@ -4854,7 +4855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" hidden="1">
       <c r="A188" s="4">
         <v>2023</v>
       </c>
@@ -4862,7 +4863,7 @@
         <v>5</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D188" s="4">
         <v>0</v>
@@ -4877,7 +4878,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" hidden="1">
       <c r="A189" s="4">
         <v>2023</v>
       </c>
@@ -4885,7 +4886,7 @@
         <v>6</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D189" s="4">
         <v>0</v>
@@ -4900,7 +4901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" hidden="1">
       <c r="A190" s="4">
         <v>2023</v>
       </c>
@@ -4908,7 +4909,7 @@
         <v>7</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D190" s="4">
         <v>0</v>
@@ -4923,7 +4924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" hidden="1">
       <c r="A191" s="4">
         <v>2023</v>
       </c>
@@ -4931,7 +4932,7 @@
         <v>8</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D191" s="4">
         <v>0</v>
@@ -4946,7 +4947,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" hidden="1">
       <c r="A192" s="4">
         <v>2023</v>
       </c>
@@ -4954,7 +4955,7 @@
         <v>9</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D192" s="4">
         <v>0</v>
@@ -4969,7 +4970,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" hidden="1">
       <c r="A193" s="4">
         <v>2023</v>
       </c>
@@ -4977,7 +4978,7 @@
         <v>10</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D193" s="4">
         <v>0</v>
@@ -4992,7 +4993,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" hidden="1">
       <c r="A194" s="4">
         <v>2023</v>
       </c>
@@ -5000,7 +5001,7 @@
         <v>11</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D194" s="4">
         <v>0</v>
@@ -5015,15 +5016,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" hidden="1">
       <c r="A195" s="4">
         <v>2023</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D195" s="4">
         <v>0</v>
@@ -5038,15 +5039,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" hidden="1">
       <c r="A196" s="4">
         <v>2023</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D196" s="4">
         <v>0</v>
@@ -5061,15 +5062,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" hidden="1">
       <c r="A197" s="4">
         <v>2023</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D197" s="4">
         <v>0</v>
@@ -5084,15 +5085,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" hidden="1">
       <c r="A198" s="4">
         <v>2023</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D198" s="4">
         <v>0</v>
@@ -5107,15 +5108,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" hidden="1">
       <c r="A199" s="4">
         <v>2023</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D199" s="4">
         <v>0</v>
@@ -5130,15 +5131,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" hidden="1">
       <c r="A200" s="4">
         <v>2023</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D200" s="5">
         <v>8871</v>
@@ -5153,7 +5154,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" hidden="1">
       <c r="A201" s="4">
         <v>2023</v>
       </c>
@@ -5161,7 +5162,7 @@
         <v>0</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D201" s="5">
         <v>1304</v>
@@ -5176,7 +5177,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" hidden="1">
       <c r="A202" s="4">
         <v>2023</v>
       </c>
@@ -5184,7 +5185,7 @@
         <v>1</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D202" s="1">
         <v>476</v>
@@ -5199,7 +5200,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" hidden="1">
       <c r="A203" s="4">
         <v>2023</v>
       </c>
@@ -5207,7 +5208,7 @@
         <v>2</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D203" s="1">
         <v>277</v>
@@ -5222,7 +5223,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" hidden="1">
       <c r="A204" s="4">
         <v>2023</v>
       </c>
@@ -5230,7 +5231,7 @@
         <v>3</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D204" s="1">
         <v>432</v>
@@ -5245,7 +5246,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" hidden="1">
       <c r="A205" s="4">
         <v>2023</v>
       </c>
@@ -5253,7 +5254,7 @@
         <v>4</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D205" s="1">
         <v>117</v>
@@ -5268,7 +5269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" hidden="1">
       <c r="A206" s="4">
         <v>2023</v>
       </c>
@@ -5276,7 +5277,7 @@
         <v>5</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D206" s="1">
         <v>189</v>
@@ -5291,7 +5292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" hidden="1">
       <c r="A207" s="4">
         <v>2023</v>
       </c>
@@ -5299,7 +5300,7 @@
         <v>6</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D207" s="1">
         <v>150</v>
@@ -5314,7 +5315,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" hidden="1">
       <c r="A208" s="4">
         <v>2023</v>
       </c>
@@ -5322,7 +5323,7 @@
         <v>7</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D208" s="1">
         <v>57</v>
@@ -5337,7 +5338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" hidden="1">
       <c r="A209" s="4">
         <v>2023</v>
       </c>
@@ -5345,7 +5346,7 @@
         <v>8</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D209" s="1">
         <v>2276</v>
@@ -5360,30 +5361,30 @@
         <v>88</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
-      <c r="A210" s="4">
-        <v>2023</v>
+    <row r="210" spans="1:7" hidden="1">
+      <c r="A210" s="1">
+        <v>2013</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D210" s="1">
-        <v>483</v>
+        <v>369</v>
       </c>
       <c r="E210" s="5">
-        <v>14525551000</v>
-      </c>
-      <c r="F210" s="4">
-        <v>0</v>
+        <v>2448533000</v>
+      </c>
+      <c r="F210" s="1">
+        <v>1</v>
       </c>
       <c r="G210" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" hidden="1">
       <c r="A211" s="4">
         <v>2023</v>
       </c>
@@ -5391,7 +5392,7 @@
         <v>10</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D211" s="1">
         <v>347</v>
@@ -5406,7 +5407,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" hidden="1">
       <c r="A212" s="4">
         <v>2023</v>
       </c>
@@ -5414,7 +5415,7 @@
         <v>11</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D212" s="1">
         <v>475</v>
@@ -5429,38 +5430,38 @@
         <v>7</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
-      <c r="A213" s="4">
-        <v>2023</v>
+    <row r="213" spans="1:7" hidden="1">
+      <c r="A213" s="1">
+        <v>2013</v>
       </c>
       <c r="B213" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D213" s="1">
+        <v>301</v>
+      </c>
+      <c r="E213" s="5">
+        <v>2926206</v>
+      </c>
+      <c r="F213" s="1">
+        <v>1</v>
+      </c>
+      <c r="G213" s="1">
         <v>12</v>
       </c>
-      <c r="C213" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D213" s="1">
-        <v>387</v>
-      </c>
-      <c r="E213" s="5">
-        <v>15059758000</v>
-      </c>
-      <c r="F213" s="1">
-        <v>2</v>
-      </c>
-      <c r="G213" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7">
+    </row>
+    <row r="214" spans="1:7" hidden="1">
       <c r="A214" s="4">
         <v>2023</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D214" s="1">
         <v>520</v>
@@ -5475,15 +5476,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" hidden="1">
       <c r="A215" s="4">
         <v>2023</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D215" s="1">
         <v>497</v>
@@ -5498,15 +5499,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" hidden="1">
       <c r="A216" s="4">
         <v>2023</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D216" s="1">
         <v>713</v>
@@ -5521,15 +5522,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" hidden="1">
       <c r="A217" s="4">
         <v>2023</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D217" s="1">
         <v>171</v>
@@ -5544,15 +5545,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" hidden="1">
       <c r="A218" s="1">
         <v>2022</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D218" s="5">
         <v>8802</v>
@@ -5567,7 +5568,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" hidden="1">
       <c r="A219" s="1">
         <v>2022</v>
       </c>
@@ -5575,7 +5576,7 @@
         <v>0</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D219" s="5">
         <v>1357</v>
@@ -5590,7 +5591,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" hidden="1">
       <c r="A220" s="1">
         <v>2022</v>
       </c>
@@ -5598,7 +5599,7 @@
         <v>1</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D220" s="1">
         <v>417</v>
@@ -5613,7 +5614,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" hidden="1">
       <c r="A221" s="1">
         <v>2022</v>
       </c>
@@ -5621,7 +5622,7 @@
         <v>2</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D221" s="1">
         <v>250</v>
@@ -5636,7 +5637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" hidden="1">
       <c r="A222" s="1">
         <v>2022</v>
       </c>
@@ -5644,7 +5645,7 @@
         <v>3</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D222" s="1">
         <v>374</v>
@@ -5659,7 +5660,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" hidden="1">
       <c r="A223" s="1">
         <v>2022</v>
       </c>
@@ -5667,7 +5668,7 @@
         <v>4</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D223" s="1">
         <v>147</v>
@@ -5682,7 +5683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" hidden="1">
       <c r="A224" s="1">
         <v>2022</v>
       </c>
@@ -5690,7 +5691,7 @@
         <v>5</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D224" s="1">
         <v>197</v>
@@ -5705,7 +5706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" hidden="1">
       <c r="A225" s="1">
         <v>2022</v>
       </c>
@@ -5713,7 +5714,7 @@
         <v>6</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D225" s="1">
         <v>172</v>
@@ -5728,7 +5729,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" hidden="1">
       <c r="A226" s="1">
         <v>2022</v>
       </c>
@@ -5736,7 +5737,7 @@
         <v>7</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D226" s="1">
         <v>57</v>
@@ -5751,7 +5752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" hidden="1">
       <c r="A227" s="1">
         <v>2022</v>
       </c>
@@ -5759,7 +5760,7 @@
         <v>8</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D227" s="5">
         <v>2380</v>
@@ -5774,30 +5775,30 @@
         <v>138</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" hidden="1">
       <c r="A228" s="1">
-        <v>2022</v>
+        <v>2014</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D228" s="1">
-        <v>447</v>
+        <v>374</v>
       </c>
       <c r="E228" s="5">
-        <v>7633596000</v>
+        <v>2354633</v>
       </c>
       <c r="F228" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G228" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" hidden="1">
       <c r="A229" s="1">
         <v>2022</v>
       </c>
@@ -5805,7 +5806,7 @@
         <v>10</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D229" s="1">
         <v>351</v>
@@ -5820,7 +5821,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" hidden="1">
       <c r="A230" s="1">
         <v>2022</v>
       </c>
@@ -5828,7 +5829,7 @@
         <v>11</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D230" s="1">
         <v>502</v>
@@ -5843,38 +5844,38 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" hidden="1">
       <c r="A231" s="1">
-        <v>2022</v>
+        <v>2014</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D231" s="1">
-        <v>352</v>
+        <v>298</v>
       </c>
       <c r="E231" s="5">
-        <v>3513744000</v>
+        <v>2788425</v>
       </c>
       <c r="F231" s="1">
         <v>1</v>
       </c>
       <c r="G231" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" hidden="1">
       <c r="A232" s="1">
         <v>2022</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D232" s="1">
         <v>497</v>
@@ -5889,15 +5890,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" hidden="1">
       <c r="A233" s="1">
         <v>2022</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D233" s="1">
         <v>500</v>
@@ -5912,15 +5913,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" hidden="1">
       <c r="A234" s="1">
         <v>2022</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D234" s="1">
         <v>636</v>
@@ -5935,15 +5936,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" hidden="1">
       <c r="A235" s="1">
         <v>2022</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D235" s="1">
         <v>166</v>
@@ -5958,15 +5959,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" hidden="1">
       <c r="A236" s="4">
         <v>2021</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D236" s="5">
         <v>8241</v>
@@ -5981,7 +5982,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" hidden="1">
       <c r="A237" s="4">
         <v>2021</v>
       </c>
@@ -5989,7 +5990,7 @@
         <v>0</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D237" s="5">
         <v>1250</v>
@@ -6004,7 +6005,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" hidden="1">
       <c r="A238" s="4">
         <v>2021</v>
       </c>
@@ -6012,7 +6013,7 @@
         <v>1</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D238" s="1">
         <v>408</v>
@@ -6027,7 +6028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" hidden="1">
       <c r="A239" s="4">
         <v>2021</v>
       </c>
@@ -6035,7 +6036,7 @@
         <v>2</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D239" s="1">
         <v>247</v>
@@ -6050,7 +6051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" hidden="1">
       <c r="A240" s="4">
         <v>2021</v>
       </c>
@@ -6058,7 +6059,7 @@
         <v>3</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D240" s="1">
         <v>392</v>
@@ -6073,7 +6074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" hidden="1">
       <c r="A241" s="4">
         <v>2021</v>
       </c>
@@ -6081,7 +6082,7 @@
         <v>4</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D241" s="1">
         <v>181</v>
@@ -6096,7 +6097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" hidden="1">
       <c r="A242" s="4">
         <v>2021</v>
       </c>
@@ -6104,7 +6105,7 @@
         <v>5</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D242" s="1">
         <v>201</v>
@@ -6119,7 +6120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" hidden="1">
       <c r="A243" s="4">
         <v>2021</v>
       </c>
@@ -6127,7 +6128,7 @@
         <v>6</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D243" s="1">
         <v>144</v>
@@ -6142,7 +6143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" hidden="1">
       <c r="A244" s="4">
         <v>2021</v>
       </c>
@@ -6150,7 +6151,7 @@
         <v>7</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D244" s="1">
         <v>57</v>
@@ -6165,7 +6166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" hidden="1">
       <c r="A245" s="4">
         <v>2021</v>
       </c>
@@ -6173,7 +6174,7 @@
         <v>8</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D245" s="5">
         <v>2198</v>
@@ -6188,30 +6189,30 @@
         <v>73</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
-      <c r="A246" s="4">
-        <v>2021</v>
+    <row r="246" spans="1:7" hidden="1">
+      <c r="A246" s="1">
+        <v>2015</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D246" s="1">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="E246" s="5">
-        <v>10513420000</v>
+        <v>2368259000</v>
       </c>
       <c r="F246" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G246" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" hidden="1">
       <c r="A247" s="4">
         <v>2021</v>
       </c>
@@ -6219,7 +6220,7 @@
         <v>10</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D247" s="1">
         <v>281</v>
@@ -6234,7 +6235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" hidden="1">
       <c r="A248" s="4">
         <v>2021</v>
       </c>
@@ -6242,7 +6243,7 @@
         <v>11</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D248" s="1">
         <v>495</v>
@@ -6257,38 +6258,38 @@
         <v>7</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
-      <c r="A249" s="4">
-        <v>2021</v>
+    <row r="249" spans="1:7" hidden="1">
+      <c r="A249" s="1">
+        <v>2015</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D249" s="1">
-        <v>353</v>
+        <v>276</v>
       </c>
       <c r="E249" s="5">
-        <v>2225015000</v>
+        <v>2119140000</v>
       </c>
       <c r="F249" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G249" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" hidden="1">
       <c r="A250" s="4">
         <v>2021</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D250" s="1">
         <v>472</v>
@@ -6303,15 +6304,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" hidden="1">
       <c r="A251" s="4">
         <v>2021</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D251" s="1">
         <v>441</v>
@@ -6326,15 +6327,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" hidden="1">
       <c r="A252" s="4">
         <v>2021</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D252" s="1">
         <v>576</v>
@@ -6349,15 +6350,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" hidden="1">
       <c r="A253" s="4">
         <v>2021</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D253" s="1">
         <v>152</v>
@@ -6372,15 +6373,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" hidden="1">
       <c r="A254" s="1">
         <v>2013</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D254" s="1">
         <v>8899</v>
@@ -6395,7 +6396,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" hidden="1">
       <c r="A255" s="1">
         <v>2013</v>
       </c>
@@ -6403,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D255" s="1">
         <v>1462</v>
@@ -6418,7 +6419,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" hidden="1">
       <c r="A256" s="1">
         <v>2013</v>
       </c>
@@ -6426,7 +6427,7 @@
         <v>1</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D256" s="1">
         <v>467</v>
@@ -6441,7 +6442,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" hidden="1">
       <c r="A257" s="1">
         <v>2013</v>
       </c>
@@ -6449,7 +6450,7 @@
         <v>2</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D257" s="1">
         <v>321</v>
@@ -6464,7 +6465,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" hidden="1">
       <c r="A258" s="1">
         <v>2013</v>
       </c>
@@ -6472,7 +6473,7 @@
         <v>3</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D258" s="1">
         <v>466</v>
@@ -6487,7 +6488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" hidden="1">
       <c r="A259" s="1">
         <v>2013</v>
       </c>
@@ -6495,7 +6496,7 @@
         <v>4</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D259" s="1">
         <v>256</v>
@@ -6510,7 +6511,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" hidden="1">
       <c r="A260" s="1">
         <v>2013</v>
       </c>
@@ -6518,7 +6519,7 @@
         <v>5</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D260" s="1">
         <v>248</v>
@@ -6533,7 +6534,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" hidden="1">
       <c r="A261" s="1">
         <v>2013</v>
       </c>
@@ -6541,7 +6542,7 @@
         <v>6</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D261" s="1">
         <v>165</v>
@@ -6556,7 +6557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" hidden="1">
       <c r="A262" s="1">
         <v>2013</v>
       </c>
@@ -6564,7 +6565,7 @@
         <v>7</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D262" s="1">
         <v>42</v>
@@ -6579,7 +6580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" hidden="1">
       <c r="A263" s="1">
         <v>2013</v>
       </c>
@@ -6587,7 +6588,7 @@
         <v>8</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D263" s="1">
         <v>2179</v>
@@ -6602,30 +6603,30 @@
         <v>79</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" hidden="1">
       <c r="A264" s="1">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D264" s="1">
-        <v>369</v>
+        <v>326</v>
       </c>
       <c r="E264" s="5">
-        <v>2448533000</v>
+        <v>2305251000</v>
       </c>
       <c r="F264" s="1">
         <v>1</v>
       </c>
       <c r="G264" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" hidden="1">
       <c r="A265" s="1">
         <v>2013</v>
       </c>
@@ -6633,7 +6634,7 @@
         <v>10</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D265" s="1">
         <v>304</v>
@@ -6648,7 +6649,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" hidden="1">
       <c r="A266" s="1">
         <v>2013</v>
       </c>
@@ -6656,7 +6657,7 @@
         <v>11</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D266" s="1">
         <v>520</v>
@@ -6671,38 +6672,38 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" hidden="1">
       <c r="A267" s="1">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D267" s="1">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="E267" s="5">
-        <v>2926206</v>
+        <v>1464737000</v>
       </c>
       <c r="F267" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G267" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" hidden="1">
       <c r="A268" s="1">
         <v>2013</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D268" s="1">
         <v>384</v>
@@ -6717,15 +6718,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" hidden="1">
       <c r="A269" s="1">
         <v>2013</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D269" s="1">
         <v>625</v>
@@ -6740,15 +6741,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" hidden="1">
       <c r="A270" s="1">
         <v>2013</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D270" s="1">
         <v>683</v>
@@ -6763,15 +6764,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" hidden="1">
       <c r="A271" s="1">
         <v>2013</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D271" s="1">
         <v>97</v>
@@ -6786,15 +6787,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" hidden="1">
       <c r="A272" s="1">
         <v>2014</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D272" s="1">
         <v>8287</v>
@@ -6809,7 +6810,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" hidden="1">
       <c r="A273" s="1">
         <v>2014</v>
       </c>
@@ -6817,7 +6818,7 @@
         <v>0</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D273" s="1">
         <v>1293</v>
@@ -6832,7 +6833,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" hidden="1">
       <c r="A274" s="1">
         <v>2014</v>
       </c>
@@ -6840,7 +6841,7 @@
         <v>1</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D274" s="1">
         <v>428</v>
@@ -6855,7 +6856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" hidden="1">
       <c r="A275" s="1">
         <v>2014</v>
       </c>
@@ -6863,7 +6864,7 @@
         <v>2</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D275" s="1">
         <v>338</v>
@@ -6878,7 +6879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" hidden="1">
       <c r="A276" s="1">
         <v>2014</v>
       </c>
@@ -6886,7 +6887,7 @@
         <v>3</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D276" s="1">
         <v>418</v>
@@ -6901,7 +6902,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" hidden="1">
       <c r="A277" s="1">
         <v>2014</v>
       </c>
@@ -6909,7 +6910,7 @@
         <v>4</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D277" s="1">
         <v>209</v>
@@ -6924,7 +6925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" hidden="1">
       <c r="A278" s="1">
         <v>2014</v>
       </c>
@@ -6932,7 +6933,7 @@
         <v>5</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D278" s="1">
         <v>231</v>
@@ -6947,7 +6948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" hidden="1">
       <c r="A279" s="1">
         <v>2014</v>
       </c>
@@ -6955,7 +6956,7 @@
         <v>6</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D279" s="1">
         <v>159</v>
@@ -6970,7 +6971,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" hidden="1">
       <c r="A280" s="1">
         <v>2014</v>
       </c>
@@ -6978,7 +6979,7 @@
         <v>7</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D280" s="1">
         <v>36</v>
@@ -6993,7 +6994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" hidden="1">
       <c r="A281" s="1">
         <v>2014</v>
       </c>
@@ -7001,7 +7002,7 @@
         <v>8</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D281" s="1">
         <v>2083</v>
@@ -7016,30 +7017,30 @@
         <v>68</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" hidden="1">
       <c r="A282" s="1">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D282" s="1">
-        <v>374</v>
+        <v>347</v>
       </c>
       <c r="E282" s="5">
-        <v>2354633</v>
+        <v>2828296000</v>
       </c>
       <c r="F282" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G282" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" hidden="1">
       <c r="A283" s="1">
         <v>2014</v>
       </c>
@@ -7047,7 +7048,7 @@
         <v>10</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D283" s="1">
         <v>242</v>
@@ -7062,7 +7063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" hidden="1">
       <c r="A284" s="1">
         <v>2014</v>
       </c>
@@ -7070,7 +7071,7 @@
         <v>11</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D284" s="1">
         <v>516</v>
@@ -7085,38 +7086,38 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" hidden="1">
       <c r="A285" s="1">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D285" s="1">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="E285" s="5">
-        <v>2788425</v>
+        <v>3522612000</v>
       </c>
       <c r="F285" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G285" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" hidden="1">
       <c r="A286" s="1">
         <v>2014</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D286" s="1">
         <v>383</v>
@@ -7131,15 +7132,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" hidden="1">
       <c r="A287" s="1">
         <v>2014</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D287" s="1">
         <v>553</v>
@@ -7154,15 +7155,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" hidden="1">
       <c r="A288" s="1">
         <v>2014</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D288" s="1">
         <v>614</v>
@@ -7177,15 +7178,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" hidden="1">
       <c r="A289" s="1">
         <v>2014</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D289" s="1">
         <v>112</v>
@@ -7200,15 +7201,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" hidden="1">
       <c r="A290" s="1">
         <v>2015</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D290" s="1">
         <v>7760</v>
@@ -7223,7 +7224,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" hidden="1">
       <c r="A291" s="1">
         <v>2015</v>
       </c>
@@ -7231,7 +7232,7 @@
         <v>0</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D291" s="1">
         <v>1209</v>
@@ -7246,7 +7247,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" hidden="1">
       <c r="A292" s="1">
         <v>2015</v>
       </c>
@@ -7254,7 +7255,7 @@
         <v>1</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D292" s="1">
         <v>394</v>
@@ -7269,7 +7270,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" hidden="1">
       <c r="A293" s="1">
         <v>2015</v>
       </c>
@@ -7277,7 +7278,7 @@
         <v>2</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D293" s="1">
         <v>289</v>
@@ -7292,7 +7293,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" hidden="1">
       <c r="A294" s="1">
         <v>2015</v>
       </c>
@@ -7300,7 +7301,7 @@
         <v>3</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D294" s="1">
         <v>419</v>
@@ -7315,7 +7316,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" hidden="1">
       <c r="A295" s="1">
         <v>2015</v>
       </c>
@@ -7323,7 +7324,7 @@
         <v>4</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D295" s="1">
         <v>183</v>
@@ -7338,7 +7339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" hidden="1">
       <c r="A296" s="1">
         <v>2015</v>
       </c>
@@ -7346,7 +7347,7 @@
         <v>5</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D296" s="1">
         <v>225</v>
@@ -7361,7 +7362,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" hidden="1">
       <c r="A297" s="1">
         <v>2015</v>
       </c>
@@ -7369,7 +7370,7 @@
         <v>6</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D297" s="1">
         <v>131</v>
@@ -7384,7 +7385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" hidden="1">
       <c r="A298" s="1">
         <v>2015</v>
       </c>
@@ -7392,7 +7393,7 @@
         <v>7</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D298" s="1">
         <v>40</v>
@@ -7407,7 +7408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" hidden="1">
       <c r="A299" s="1">
         <v>2015</v>
       </c>
@@ -7415,7 +7416,7 @@
         <v>8</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D299" s="1">
         <v>1943</v>
@@ -7432,28 +7433,28 @@
     </row>
     <row r="300" spans="1:7">
       <c r="A300" s="1">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D300" s="1">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E300" s="5">
-        <v>2368259000</v>
+        <v>7951113000</v>
       </c>
       <c r="F300" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G300" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" hidden="1">
       <c r="A301" s="1">
         <v>2015</v>
       </c>
@@ -7461,7 +7462,7 @@
         <v>10</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D301" s="1">
         <v>209</v>
@@ -7476,7 +7477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" hidden="1">
       <c r="A302" s="1">
         <v>2015</v>
       </c>
@@ -7484,7 +7485,7 @@
         <v>11</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D302" s="1">
         <v>387</v>
@@ -7501,36 +7502,36 @@
     </row>
     <row r="303" spans="1:7">
       <c r="A303" s="1">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D303" s="1">
-        <v>276</v>
+        <v>418</v>
       </c>
       <c r="E303" s="5">
-        <v>2119140000</v>
+        <v>4061691000</v>
       </c>
       <c r="F303" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G303" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" hidden="1">
       <c r="A304" s="1">
         <v>2015</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D304" s="1">
         <v>465</v>
@@ -7545,15 +7546,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" hidden="1">
       <c r="A305" s="1">
         <v>2015</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D305" s="1">
         <v>501</v>
@@ -7568,15 +7569,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" hidden="1">
       <c r="A306" s="1">
         <v>2015</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D306" s="1">
         <v>570</v>
@@ -7591,15 +7592,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" hidden="1">
       <c r="A307" s="1">
         <v>2015</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D307" s="1">
         <v>120</v>
@@ -7614,15 +7615,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" hidden="1">
       <c r="A308" s="1">
         <v>2016</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D308" s="1">
         <v>7563</v>
@@ -7637,7 +7638,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" hidden="1">
       <c r="A309" s="1">
         <v>2016</v>
       </c>
@@ -7645,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D309" s="1">
         <v>1138</v>
@@ -7660,7 +7661,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" hidden="1">
       <c r="A310" s="1">
         <v>2016</v>
       </c>
@@ -7668,7 +7669,7 @@
         <v>1</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D310" s="1">
         <v>409</v>
@@ -7683,7 +7684,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" hidden="1">
       <c r="A311" s="1">
         <v>2016</v>
       </c>
@@ -7691,7 +7692,7 @@
         <v>2</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D311" s="1">
         <v>273</v>
@@ -7706,7 +7707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" hidden="1">
       <c r="A312" s="1">
         <v>2016</v>
       </c>
@@ -7714,7 +7715,7 @@
         <v>3</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D312" s="1">
         <v>417</v>
@@ -7729,7 +7730,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" hidden="1">
       <c r="A313" s="1">
         <v>2016</v>
       </c>
@@ -7737,7 +7738,7 @@
         <v>4</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D313" s="1">
         <v>186</v>
@@ -7752,7 +7753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" hidden="1">
       <c r="A314" s="1">
         <v>2016</v>
       </c>
@@ -7760,7 +7761,7 @@
         <v>5</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D314" s="1">
         <v>206</v>
@@ -7775,7 +7776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" hidden="1">
       <c r="A315" s="1">
         <v>2016</v>
       </c>
@@ -7783,7 +7784,7 @@
         <v>6</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D315" s="1">
         <v>128</v>
@@ -7798,7 +7799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" hidden="1">
       <c r="A316" s="1">
         <v>2016</v>
       </c>
@@ -7806,7 +7807,7 @@
         <v>7</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D316" s="1">
         <v>55</v>
@@ -7821,7 +7822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" hidden="1">
       <c r="A317" s="1">
         <v>2016</v>
       </c>
@@ -7829,7 +7830,7 @@
         <v>8</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D317" s="1">
         <v>2007</v>
@@ -7844,30 +7845,30 @@
         <v>79</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" hidden="1">
       <c r="A318" s="1">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D318" s="1">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E318" s="5">
-        <v>2305251000</v>
+        <v>120572769000</v>
       </c>
       <c r="F318" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G318" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" hidden="1">
       <c r="A319" s="1">
         <v>2016</v>
       </c>
@@ -7875,7 +7876,7 @@
         <v>10</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D319" s="1">
         <v>210</v>
@@ -7890,7 +7891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" hidden="1">
       <c r="A320" s="1">
         <v>2016</v>
       </c>
@@ -7898,7 +7899,7 @@
         <v>11</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D320" s="1">
         <v>384</v>
@@ -7913,38 +7914,38 @@
         <v>6</v>
       </c>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:7" hidden="1">
       <c r="A321" s="1">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D321" s="1">
-        <v>267</v>
+        <v>357</v>
       </c>
       <c r="E321" s="5">
-        <v>1464737000</v>
+        <v>4600298000</v>
       </c>
       <c r="F321" s="1">
         <v>2</v>
       </c>
       <c r="G321" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" hidden="1">
       <c r="A322" s="1">
         <v>2016</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D322" s="1">
         <v>376</v>
@@ -7959,15 +7960,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:7" hidden="1">
       <c r="A323" s="1">
         <v>2016</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D323" s="1">
         <v>430</v>
@@ -7982,15 +7983,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" hidden="1">
       <c r="A324" s="1">
         <v>2016</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D324" s="1">
         <v>329</v>
@@ -8005,15 +8006,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:7" hidden="1">
       <c r="A325" s="1">
         <v>2016</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D325" s="1">
         <v>121</v>
@@ -8028,15 +8029,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" hidden="1">
       <c r="A326" s="1">
         <v>2017</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D326" s="1">
         <v>8011</v>
@@ -8051,7 +8052,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:7" hidden="1">
       <c r="A327" s="1">
         <v>2017</v>
       </c>
@@ -8059,13 +8060,13 @@
         <v>0</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D327" s="1">
         <v>1180</v>
       </c>
       <c r="E327" s="5">
-        <v>3462036</v>
+        <v>3462036000</v>
       </c>
       <c r="F327" s="1">
         <v>5</v>
@@ -8074,7 +8075,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:7" hidden="1">
       <c r="A328" s="1">
         <v>2017</v>
       </c>
@@ -8082,7 +8083,7 @@
         <v>1</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D328" s="1">
         <v>457</v>
@@ -8097,7 +8098,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:7" hidden="1">
       <c r="A329" s="1">
         <v>2017</v>
       </c>
@@ -8105,7 +8106,7 @@
         <v>2</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D329" s="1">
         <v>287</v>
@@ -8120,7 +8121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" spans="1:7" hidden="1">
       <c r="A330" s="1">
         <v>2017</v>
       </c>
@@ -8128,7 +8129,7 @@
         <v>3</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D330" s="1">
         <v>397</v>
@@ -8143,7 +8144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" spans="1:7" hidden="1">
       <c r="A331" s="1">
         <v>2017</v>
       </c>
@@ -8151,7 +8152,7 @@
         <v>4</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D331" s="1">
         <v>144</v>
@@ -8166,7 +8167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" spans="1:7" hidden="1">
       <c r="A332" s="1">
         <v>2017</v>
       </c>
@@ -8174,7 +8175,7 @@
         <v>5</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D332" s="1">
         <v>221</v>
@@ -8189,7 +8190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:7" hidden="1">
       <c r="A333" s="1">
         <v>2017</v>
       </c>
@@ -8197,7 +8198,7 @@
         <v>6</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D333" s="1">
         <v>152</v>
@@ -8212,7 +8213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:7" hidden="1">
       <c r="A334" s="1">
         <v>2017</v>
       </c>
@@ -8220,7 +8221,7 @@
         <v>7</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D334" s="1">
         <v>50</v>
@@ -8235,7 +8236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:7" hidden="1">
       <c r="A335" s="1">
         <v>2017</v>
       </c>
@@ -8243,7 +8244,7 @@
         <v>8</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D335" s="1">
         <v>2066</v>
@@ -8258,30 +8259,30 @@
         <v>76</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:7" hidden="1">
       <c r="A336" s="1">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D336" s="1">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="E336" s="5">
-        <v>2828296000</v>
+        <v>3811595000</v>
       </c>
       <c r="F336" s="1">
         <v>0</v>
       </c>
       <c r="G336" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="337" spans="1:7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" hidden="1">
       <c r="A337" s="1">
         <v>2017</v>
       </c>
@@ -8289,7 +8290,7 @@
         <v>10</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D337" s="1">
         <v>251</v>
@@ -8304,7 +8305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" hidden="1">
       <c r="A338" s="1">
         <v>2017</v>
       </c>
@@ -8312,7 +8313,7 @@
         <v>11</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D338" s="1">
         <v>422</v>
@@ -8327,38 +8328,38 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" hidden="1">
       <c r="A339" s="1">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D339" s="1">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="E339" s="5">
-        <v>3522612000</v>
+        <v>3129914000</v>
       </c>
       <c r="F339" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G339" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="340" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" hidden="1">
       <c r="A340" s="1">
         <v>2017</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D340" s="1">
         <v>456</v>
@@ -8373,15 +8374,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" hidden="1">
       <c r="A341" s="1">
         <v>2017</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D341" s="1">
         <v>468</v>
@@ -8396,15 +8397,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" hidden="1">
       <c r="A342" s="1">
         <v>2017</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D342" s="1">
         <v>635</v>
@@ -8419,15 +8420,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" spans="1:7" hidden="1">
       <c r="A343" s="1">
         <v>2017</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D343" s="1">
         <v>132</v>
@@ -8447,10 +8448,10 @@
         <v>2018</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D344" s="1">
         <v>9240</v>
@@ -8473,7 +8474,7 @@
         <v>0</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D345" s="1">
         <v>1412</v>
@@ -8496,7 +8497,7 @@
         <v>1</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D346" s="1">
         <v>563</v>
@@ -8519,7 +8520,7 @@
         <v>2</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D347" s="1">
         <v>319</v>
@@ -8542,7 +8543,7 @@
         <v>3</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D348" s="1">
         <v>481</v>
@@ -8565,7 +8566,7 @@
         <v>4</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D349" s="1">
         <v>185</v>
@@ -8588,7 +8589,7 @@
         <v>5</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D350" s="1">
         <v>272</v>
@@ -8611,7 +8612,7 @@
         <v>6</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D351" s="1">
         <v>163</v>
@@ -8634,7 +8635,7 @@
         <v>7</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D352" s="1">
         <v>53</v>
@@ -8657,7 +8658,7 @@
         <v>8</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D353" s="1">
         <v>2403</v>
@@ -8672,27 +8673,27 @@
         <v>83</v>
       </c>
     </row>
-    <row r="354" spans="1:7">
-      <c r="A354" s="1">
-        <v>2018</v>
+    <row r="354" spans="1:7" hidden="1">
+      <c r="A354" s="4">
+        <v>2021</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D354" s="1">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E354" s="5">
-        <v>7951113000</v>
+        <v>10513420000</v>
       </c>
       <c r="F354" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G354" s="1">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="355" spans="1:7">
@@ -8703,7 +8704,7 @@
         <v>10</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D355" s="1">
         <v>254</v>
@@ -8726,7 +8727,7 @@
         <v>11</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D356" s="1">
         <v>491</v>
@@ -8741,27 +8742,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="357" spans="1:7">
-      <c r="A357" s="1">
-        <v>2018</v>
+    <row r="357" spans="1:7" hidden="1">
+      <c r="A357" s="4">
+        <v>2021</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D357" s="1">
-        <v>418</v>
+        <v>353</v>
       </c>
       <c r="E357" s="5">
-        <v>4061691000</v>
+        <v>2225015000</v>
       </c>
       <c r="F357" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G357" s="1">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="358" spans="1:7">
@@ -8769,16 +8770,16 @@
         <v>2018</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D358" s="1">
         <v>478</v>
       </c>
       <c r="E358" s="5">
-        <v>11007519</v>
+        <v>11007519000</v>
       </c>
       <c r="F358" s="1">
         <v>0</v>
@@ -8792,10 +8793,10 @@
         <v>2018</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D359" s="1">
         <v>526</v>
@@ -8815,10 +8816,10 @@
         <v>2018</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D360" s="1">
         <v>658</v>
@@ -8838,10 +8839,10 @@
         <v>2018</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D361" s="1">
         <v>168</v>
@@ -8856,15 +8857,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" hidden="1">
       <c r="A362" s="1">
         <v>2019</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D362" s="1">
         <v>8155</v>
@@ -8879,7 +8880,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:7" hidden="1">
       <c r="A363" s="1">
         <v>2019</v>
       </c>
@@ -8887,7 +8888,7 @@
         <v>0</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D363" s="1">
         <v>1199</v>
@@ -8902,7 +8903,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:7" hidden="1">
       <c r="A364" s="1">
         <v>2019</v>
       </c>
@@ -8910,7 +8911,7 @@
         <v>1</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D364" s="1">
         <v>290</v>
@@ -8925,7 +8926,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" spans="1:7" hidden="1">
       <c r="A365" s="1">
         <v>2019</v>
       </c>
@@ -8933,7 +8934,7 @@
         <v>2</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D365" s="1">
         <v>260</v>
@@ -8948,7 +8949,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:7" hidden="1">
       <c r="A366" s="1">
         <v>2019</v>
       </c>
@@ -8956,7 +8957,7 @@
         <v>3</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D366" s="1">
         <v>353</v>
@@ -8971,7 +8972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:7" hidden="1">
       <c r="A367" s="1">
         <v>2019</v>
       </c>
@@ -8979,7 +8980,7 @@
         <v>4</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D367" s="1">
         <v>167</v>
@@ -8994,7 +8995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:7" hidden="1">
       <c r="A368" s="1">
         <v>2019</v>
       </c>
@@ -9002,7 +9003,7 @@
         <v>5</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D368" s="1">
         <v>238</v>
@@ -9017,7 +9018,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="369" spans="1:7">
+    <row r="369" spans="1:7" hidden="1">
       <c r="A369" s="1">
         <v>2019</v>
       </c>
@@ -9025,7 +9026,7 @@
         <v>6</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D369" s="1">
         <v>163</v>
@@ -9040,7 +9041,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" spans="1:7" hidden="1">
       <c r="A370" s="1">
         <v>2019</v>
       </c>
@@ -9048,7 +9049,7 @@
         <v>7</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D370" s="1">
         <v>43</v>
@@ -9063,7 +9064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:7" hidden="1">
       <c r="A371" s="1">
         <v>2019</v>
       </c>
@@ -9071,7 +9072,7 @@
         <v>8</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D371" s="1">
         <v>2082</v>
@@ -9086,30 +9087,30 @@
         <v>69</v>
       </c>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:7" hidden="1">
       <c r="A372" s="1">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D372" s="1">
-        <v>333</v>
+        <v>447</v>
       </c>
       <c r="E372" s="5">
-        <v>120572769000</v>
+        <v>7633596000</v>
       </c>
       <c r="F372" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G372" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="373" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" hidden="1">
       <c r="A373" s="1">
         <v>2019</v>
       </c>
@@ -9117,7 +9118,7 @@
         <v>10</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D373" s="1">
         <v>283</v>
@@ -9132,7 +9133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" spans="1:7" hidden="1">
       <c r="A374" s="1">
         <v>2019</v>
       </c>
@@ -9140,7 +9141,7 @@
         <v>11</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D374" s="1">
         <v>453</v>
@@ -9155,38 +9156,38 @@
         <v>9</v>
       </c>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" spans="1:7" hidden="1">
       <c r="A375" s="1">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D375" s="1">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E375" s="5">
-        <v>4600298000</v>
+        <v>3513744000</v>
       </c>
       <c r="F375" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G375" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="376" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" hidden="1">
       <c r="A376" s="1">
         <v>2019</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D376" s="1">
         <v>442</v>
@@ -9201,15 +9202,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" spans="1:7" hidden="1">
       <c r="A377" s="1">
         <v>2019</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D377" s="1">
         <v>404</v>
@@ -9224,15 +9225,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="378" spans="1:7">
+    <row r="378" spans="1:7" hidden="1">
       <c r="A378" s="1">
         <v>2019</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C378" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D378" s="1">
         <v>642</v>
@@ -9247,15 +9248,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:7" hidden="1">
       <c r="A379" s="1">
         <v>2019</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D379" s="1">
         <v>146</v>
@@ -9270,15 +9271,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:7" hidden="1">
       <c r="A380" s="1">
         <v>2020</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D380" s="1">
         <v>8170</v>
@@ -9293,7 +9294,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="381" spans="1:7">
+    <row r="381" spans="1:7" hidden="1">
       <c r="A381" s="1">
         <v>2020</v>
       </c>
@@ -9301,7 +9302,7 @@
         <v>0</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D381" s="1">
         <v>1175</v>
@@ -9316,7 +9317,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" spans="1:7" hidden="1">
       <c r="A382" s="1">
         <v>2020</v>
       </c>
@@ -9324,7 +9325,7 @@
         <v>1</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D382" s="1">
         <v>518</v>
@@ -9339,7 +9340,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" spans="1:7" hidden="1">
       <c r="A383" s="1">
         <v>2020</v>
       </c>
@@ -9347,7 +9348,7 @@
         <v>2</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D383" s="1">
         <v>276</v>
@@ -9362,7 +9363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" spans="1:7" hidden="1">
       <c r="A384" s="1">
         <v>2020</v>
       </c>
@@ -9370,7 +9371,7 @@
         <v>3</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D384" s="1">
         <v>361</v>
@@ -9385,7 +9386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:7" hidden="1">
       <c r="A385" s="1">
         <v>2020</v>
       </c>
@@ -9393,7 +9394,7 @@
         <v>4</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D385" s="1">
         <v>166</v>
@@ -9408,7 +9409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" hidden="1">
       <c r="A386" s="1">
         <v>2020</v>
       </c>
@@ -9416,7 +9417,7 @@
         <v>5</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D386" s="1">
         <v>207</v>
@@ -9431,7 +9432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" hidden="1">
       <c r="A387" s="1">
         <v>2020</v>
       </c>
@@ -9439,7 +9440,7 @@
         <v>6</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D387" s="1">
         <v>159</v>
@@ -9454,7 +9455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" hidden="1">
       <c r="A388" s="1">
         <v>2020</v>
       </c>
@@ -9462,7 +9463,7 @@
         <v>7</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D388" s="1">
         <v>45</v>
@@ -9477,7 +9478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" hidden="1">
       <c r="A389" s="1">
         <v>2020</v>
       </c>
@@ -9485,7 +9486,7 @@
         <v>8</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D389" s="1">
         <v>2173</v>
@@ -9500,30 +9501,30 @@
         <v>89</v>
       </c>
     </row>
-    <row r="390" spans="1:7">
-      <c r="A390" s="1">
-        <v>2020</v>
+    <row r="390" spans="1:7" hidden="1">
+      <c r="A390" s="4">
+        <v>2023</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D390" s="1">
-        <v>370</v>
+        <v>483</v>
       </c>
       <c r="E390" s="5">
-        <v>3811595000</v>
-      </c>
-      <c r="F390" s="1">
+        <v>14525551000</v>
+      </c>
+      <c r="F390" s="4">
         <v>0</v>
       </c>
       <c r="G390" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="391" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" hidden="1">
       <c r="A391" s="1">
         <v>2020</v>
       </c>
@@ -9531,7 +9532,7 @@
         <v>10</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D391" s="1">
         <v>298</v>
@@ -9546,7 +9547,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" spans="1:7" hidden="1">
       <c r="A392" s="1">
         <v>2020</v>
       </c>
@@ -9554,7 +9555,7 @@
         <v>11</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D392" s="1">
         <v>461</v>
@@ -9569,38 +9570,38 @@
         <v>7</v>
       </c>
     </row>
-    <row r="393" spans="1:7">
-      <c r="A393" s="1">
-        <v>2020</v>
+    <row r="393" spans="1:7" hidden="1">
+      <c r="A393" s="4">
+        <v>2023</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D393" s="1">
-        <v>335</v>
+        <v>387</v>
       </c>
       <c r="E393" s="5">
-        <v>3129914000</v>
+        <v>15059758000</v>
       </c>
       <c r="F393" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G393" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="394" spans="1:7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" hidden="1">
       <c r="A394" s="1">
         <v>2020</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D394" s="1">
         <v>453</v>
@@ -9615,15 +9616,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:7" hidden="1">
       <c r="A395" s="1">
         <v>2020</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D395" s="1">
         <v>455</v>
@@ -9638,15 +9639,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:7" hidden="1">
       <c r="A396" s="1">
         <v>2020</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D396" s="1">
         <v>581</v>
@@ -9661,15 +9662,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:7" hidden="1">
       <c r="A397" s="1">
         <v>2020</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D397" s="1">
         <v>137</v>
@@ -9685,6 +9686,21 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G397" xr:uid="{0C64ED85-B3D9-445F-AD91-7A880470EED6}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="2018"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="전기화재"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A210:G393">
+      <sortCondition ref="A1:A397"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
